--- a/biology/Zoologie/Bathyraja_albomaculata/Bathyraja_albomaculata.xlsx
+++ b/biology/Zoologie/Bathyraja_albomaculata/Bathyraja_albomaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathyraja albomaculata est une espèce de raies de la famille des Arhynchobatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les raies de l'espèce Bathyraja albomaculata ont une longueur moyenne de 58 à 60 cm sans différence significative entre les mâles et les femelles. Il existe toutefois un dimorphisme sexuel car les femelles sont plus lourdes que les mâles à taille égale[1]. Un autre dimorphisme sexuel existe pour la forme du disque de ces raies avec les mâles ayant un disque plus en forme de cœur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les raies de l'espèce Bathyraja albomaculata ont une longueur moyenne de 58 à 60 cm sans différence significative entre les mâles et les femelles. Il existe toutefois un dimorphisme sexuel car les femelles sont plus lourdes que les mâles à taille égale. Un autre dimorphisme sexuel existe pour la forme du disque de ces raies avec les mâles ayant un disque plus en forme de cœur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bathyraja albomaculata est une raie que l'on retrouve de l'Atlantique sud jusqu'au Pacifique depuis l'Uruguay jusqu'au Chili avec une présence avérée en Argentine et aux Malouines[2],[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bathyraja albomaculata est une raie que l'on retrouve de l'Atlantique sud jusqu'au Pacifique depuis l'Uruguay jusqu'au Chili avec une présence avérée en Argentine et aux Malouines,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette raie est présente de 72 m à 945 m de profondeur[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette raie est présente de 72 m à 945 m de profondeur.
 </t>
         </is>
       </c>
@@ -604,17 +622,88 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bathyraja albomaculata (Norman, 1937)[3].
-L'espèce a été initialement classée dans le genre Raja sous le protonyme Raja albomaculata Norman, 1937[3],[4].
-Synonymie
-Bathyraja albomaculata a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bathyraja albomaculata (Norman, 1937).
+L'espèce a été initialement classée dans le genre Raja sous le protonyme Raja albomaculata Norman, 1937,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bathyraja_albomaculata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bathyraja_albomaculata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bathyraja albomaculata a pour synonymes :
 Breviraja albomaculata (Norman, 1937)
 Raja albomaculata Norman, 1937
-Rhinoraja albomaculata (Norman, 1937)
-Étymologie
-Son épithète spécifique, du latin albus, « blanc », et maculatus, « tacheté », fait référence à sa face dorsale qui est parsemée de petites taches rondes et blanches[5].
+Rhinoraja albomaculata (Norman, 1937)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bathyraja_albomaculata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bathyraja_albomaculata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin albus, « blanc », et maculatus, « tacheté », fait référence à sa face dorsale qui est parsemée de petites taches rondes et blanches.
 </t>
         </is>
       </c>
